--- a/medicine/Mort/Monument_aux_morts_de_Vottem/Monument_aux_morts_de_Vottem.xlsx
+++ b/medicine/Mort/Monument_aux_morts_de_Vottem/Monument_aux_morts_de_Vottem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Monument aux Morts de Vottem est une monument dans la partie Est de la Belgique, dédié aux victimes des  Première et  Seconde Guerres mondiales.
 </t>
@@ -511,9 +523,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situé Chaussée Brunehault à Vottem, ce monument aux morts est localisé dans le cimetière communal. La majorité communale socialiste ne voulait pas d'un monument sur la voie publique, pour éviter les manifestations patriotardes et militaristes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé Chaussée Brunehault à Vottem, ce monument aux morts est localisé dans le cimetière communal. La majorité communale socialiste ne voulait pas d'un monument sur la voie publique, pour éviter les manifestations patriotardes et militaristes.
 </t>
         </is>
       </c>
@@ -544,10 +558,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guerre 1914-1918
-34 noms
-Guerre 1940-1945
-Tombés au champ d’honneur : 12 noms
+          <t>Guerre 1914-1918</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34 noms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Monument_aux_morts_de_Vottem</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monument_aux_morts_de_Vottem</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des morts au champ d’honneur</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Guerre 1940-1945</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tombés au champ d’honneur : 12 noms
 Soldats décédés en Allemagne : 6 noms
 Résistant fusillé : Joseph Henrotte
 Tombé au maquis : Antoine Marcotty
